--- a/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
+++ b/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
   <si>
     <t>数据字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,39 +316,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>表结构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表数据字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表主键引用的序列名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表结构设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表数据字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表主键引用的序列名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表说明</t>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary_field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段数据字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段所在表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_constraint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_constraint_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_name_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段约束说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_reference_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参照说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,95 +452,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dictionary_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictionary_field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段数据字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段所在表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_constraint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_constraint_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_name_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段约束说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_reference_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参照说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列表</t>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_description</t>
+  </si>
+  <si>
+    <t>表描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,27 +479,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>field_key_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段键值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_key_type_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段键值类型说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(1024)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
+    <t>field_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有标准表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,7 +626,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,14 +948,15 @@
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="39.125" customWidth="1"/>
+    <col min="7" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -874,874 +967,1002 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="H29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
         <v>90</v>
       </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D50" t="s">
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="s">
         <v>110</v>
       </c>
-      <c r="E50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D54" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
         <v>96</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
         <v>97</v>
       </c>
-      <c r="F54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D59" t="s">
+      <c r="E65" t="s">
         <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" t="s">
         <v>20</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F73" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C36:C46"/>
-    <mergeCell ref="A7:A45"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B19"/>
+  <mergeCells count="15">
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="A9:A47"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
+++ b/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
+++ b/bbj/bbj-doc/数据库/数据库设计/数据库设计-平台部分-数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>数据字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,67 +384,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>field_constraint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_constraint_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_name_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段约束说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_reference_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段参照说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_description</t>
+  </si>
+  <si>
+    <t>表描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有标准表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>field_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>field_constraint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_constraint_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_name_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段约束说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_reference_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段参照说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
+    <t>field_type_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_show_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段展示类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,128 +585,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(1024)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_description</t>
-  </si>
-  <si>
-    <t>表描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_key_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段键值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照值表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键值说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_key_type_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段键值类型说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field_remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有标准表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_staff_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_staff_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除状态</t>
+    <t>field_show_type_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段展示类型说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,13 +639,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,169 +971,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>140</v>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>142</v>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D9" t="s">
@@ -1134,9 +1150,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -1148,9 +1164,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>17</v>
       </c>
@@ -1162,9 +1178,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -1176,14 +1192,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
@@ -1200,9 +1216,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -1214,9 +1230,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>62</v>
       </c>
@@ -1231,9 +1247,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -1245,9 +1261,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -1259,9 +1275,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -1273,9 +1289,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -1287,9 +1303,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" t="s">
         <v>28</v>
       </c>
@@ -1298,16 +1314,16 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
@@ -1324,9 +1340,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" t="s">
         <v>11</v>
       </c>
@@ -1338,9 +1354,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" t="s">
         <v>66</v>
       </c>
@@ -1355,9 +1371,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" t="s">
         <v>73</v>
       </c>
@@ -1372,9 +1388,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" t="s">
         <v>22</v>
       </c>
@@ -1386,9 +1402,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" t="s">
         <v>17</v>
       </c>
@@ -1400,9 +1416,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" t="s">
         <v>14</v>
       </c>
@@ -1414,16 +1430,16 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D31" t="s">
@@ -1440,9 +1456,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" t="s">
         <v>11</v>
       </c>
@@ -1454,9 +1470,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" t="s">
         <v>68</v>
       </c>
@@ -1471,9 +1487,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" t="s">
         <v>22</v>
       </c>
@@ -1485,9 +1501,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" t="s">
         <v>17</v>
       </c>
@@ -1499,9 +1515,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" t="s">
         <v>14</v>
       </c>
@@ -1513,16 +1529,16 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D38" t="s">
@@ -1536,9 +1552,9 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" t="s">
         <v>10</v>
       </c>
@@ -1550,9 +1566,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" t="s">
         <v>70</v>
       </c>
@@ -1567,9 +1583,9 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" t="s">
         <v>47</v>
       </c>
@@ -1581,9 +1597,9 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" t="s">
         <v>33</v>
       </c>
@@ -1595,9 +1611,9 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" t="s">
         <v>34</v>
       </c>
@@ -1609,9 +1625,9 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" t="s">
         <v>21</v>
       </c>
@@ -1623,9 +1639,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" t="s">
         <v>25</v>
       </c>
@@ -1637,9 +1653,9 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" t="s">
         <v>16</v>
       </c>
@@ -1651,9 +1667,9 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" t="s">
         <v>50</v>
       </c>
@@ -1666,8 +1682,8 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" t="s">
         <v>57</v>
       </c>
@@ -1708,21 +1724,21 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
         <v>115</v>
-      </c>
-      <c r="E53" t="s">
-        <v>116</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -1741,13 +1757,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1775,7 +1791,7 @@
         <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1786,26 +1802,26 @@
         <v>91</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
         <v>98</v>
       </c>
-      <c r="E60" t="s">
-        <v>99</v>
-      </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="F61" t="s">
         <v>48</v>
@@ -1813,148 +1829,152 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
         <v>101</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
         <v>106</v>
       </c>
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>7</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
         <v>14</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>20</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="A9:A47"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C14:C21"/>
@@ -1963,9 +1983,16 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="A9:A47"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>